--- a/オンライン合同企業展サイトイメージ_20200929.xlsx
+++ b/オンライン合同企業展サイトイメージ_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu002\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\Desktop\新しいフォルダー (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B3C09-6D05-4447-A642-3F54CFE3CEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FBD8C-9C03-44D0-8CA2-6C97D87C11B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="300" windowWidth="18570" windowHeight="15390" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="引継ぎ" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>合同企業展</t>
     <rPh sb="0" eb="2">
@@ -323,34 +323,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイトマップ(仮)</t>
     <rPh sb="7" eb="8">
       <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会場選択</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業情報</t>
-    <rPh sb="0" eb="4">
-      <t>キギョウジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,20 +333,6 @@
     <t>オンライン合同企業展</t>
     <rPh sb="5" eb="10">
       <t>ゴウドウキギョウテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アバター変更</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明会</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1160,6 +1121,98 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)Unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター変更(2)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場選択(1)</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業情報(1)</t>
+    <rPh sb="0" eb="4">
+      <t>キギョウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧履歴(1)</t>
+    <rPh sb="0" eb="4">
+      <t>エツランリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索(1)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会スケジュール(1)</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会(2)</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML担当:8画面</t>
+    <rPh sb="4" eb="6">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity担当:2画面</t>
+    <rPh sb="5" eb="7">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1727,6 +1780,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,9 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3269,8 +3322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13853583" y="899584"/>
-          <a:ext cx="910167" cy="910167"/>
+          <a:off x="13472583" y="863601"/>
+          <a:ext cx="891117" cy="867833"/>
           <a:chOff x="13853583" y="899584"/>
           <a:chExt cx="910167" cy="910167"/>
         </a:xfrm>
@@ -3467,8 +3520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14224002" y="1137176"/>
-          <a:ext cx="190500" cy="294750"/>
+          <a:off x="13843002" y="1094842"/>
+          <a:ext cx="190500" cy="288401"/>
           <a:chOff x="16753417" y="1534583"/>
           <a:chExt cx="268817" cy="415926"/>
         </a:xfrm>
@@ -4285,8 +4338,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3217334" y="2243667"/>
-          <a:ext cx="1397000" cy="1397000"/>
+          <a:off x="3141134" y="2144184"/>
+          <a:ext cx="1358900" cy="1322917"/>
           <a:chOff x="3704166" y="2243667"/>
           <a:chExt cx="910167" cy="910167"/>
         </a:xfrm>
@@ -6316,8 +6369,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3941234" y="4042027"/>
-          <a:ext cx="577849" cy="815723"/>
+          <a:off x="3845984" y="3838827"/>
+          <a:ext cx="558799" cy="771273"/>
           <a:chOff x="3824817" y="3851527"/>
           <a:chExt cx="577849" cy="815723"/>
         </a:xfrm>
@@ -6441,8 +6494,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9004300" y="4046260"/>
-          <a:ext cx="577849" cy="815723"/>
+          <a:off x="8756650" y="3843060"/>
+          <a:ext cx="577849" cy="771273"/>
           <a:chOff x="3824817" y="3851527"/>
           <a:chExt cx="577849" cy="815723"/>
         </a:xfrm>
@@ -7428,13 +7481,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94F56D8-01F2-4095-8916-161C0B9320A9}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7453,10 +7506,10 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7474,10 +7527,10 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -7495,7 +7548,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7514,10 +7567,10 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -7535,10 +7588,10 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7556,10 +7609,10 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -7577,7 +7630,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7596,10 +7649,10 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -7617,10 +7670,10 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7638,10 +7691,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -7659,10 +7712,10 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -7680,7 +7733,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7699,7 +7752,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7718,10 +7771,10 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="46" t="s">
-        <v>56</v>
+      <c r="B15" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -7739,10 +7792,10 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -7760,7 +7813,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7779,7 +7832,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7798,7 +7851,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7817,7 +7870,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7836,7 +7889,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7855,7 +7908,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7874,7 +7927,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7893,7 +7946,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7912,7 +7965,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7931,7 +7984,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7950,7 +8003,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7969,7 +8022,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7988,7 +8041,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8007,7 +8060,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8026,7 +8079,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8045,7 +8098,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8064,7 +8117,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -8083,7 +8136,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -8102,7 +8155,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -8121,7 +8174,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -8140,7 +8193,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8159,7 +8212,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -8178,7 +8231,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8197,7 +8250,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -8216,7 +8269,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -8235,7 +8288,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8254,7 +8307,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -8273,7 +8326,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -8292,7 +8345,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -8311,7 +8364,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -8330,7 +8383,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8349,7 +8402,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -8368,7 +8421,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8387,7 +8440,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -8406,7 +8459,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -8425,7 +8478,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8444,7 +8497,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8463,7 +8516,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -8482,7 +8535,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8501,7 +8554,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8520,7 +8573,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8539,7 +8592,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8558,7 +8611,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8577,7 +8630,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8607,17 +8660,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811D459-42FF-4B84-B347-AB1111206460}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8637,11 +8690,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -8659,10 +8712,12 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -8679,10 +8734,12 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8699,7 +8756,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8719,7 +8776,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8739,7 +8796,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8748,14 +8805,14 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="5"/>
       <c r="K7" s="22" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -8763,7 +8820,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8783,7 +8840,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8803,39 +8860,39 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="23" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="5"/>
       <c r="F10" s="22" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="5"/>
       <c r="I10" s="22" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="22" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="22" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="23" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="P10" s="24"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8855,7 +8912,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8875,16 +8932,16 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="23" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="5"/>
       <c r="F13" s="22" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -8899,7 +8956,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8914,12 +8971,14 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8934,12 +8993,14 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8959,7 +9020,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8979,7 +9040,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8999,7 +9060,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9019,7 +9080,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9039,7 +9100,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9059,7 +9120,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9079,7 +9140,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9099,7 +9160,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9119,7 +9180,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9153,9 +9214,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -9186,7 +9247,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -9215,7 +9276,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9244,13 +9305,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -9264,7 +9325,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="7"/>
@@ -9275,11 +9336,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -9301,7 +9362,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="10"/>
@@ -9312,7 +9373,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -9343,7 +9404,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -9380,7 +9441,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -9415,7 +9476,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -9444,7 +9505,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -9475,7 +9536,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -9512,7 +9573,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -9543,7 +9604,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -9574,7 +9635,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -9605,7 +9666,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -9634,7 +9695,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -9665,7 +9726,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -9696,7 +9757,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -9727,7 +9788,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -9758,7 +9819,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -9787,7 +9848,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -9818,7 +9879,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -9849,7 +9910,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -9886,7 +9947,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -9917,7 +9978,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -9948,7 +10009,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -9979,7 +10040,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -10010,7 +10071,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -10041,7 +10102,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -10072,7 +10133,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -10101,7 +10162,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -10130,7 +10191,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -10159,7 +10220,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10188,11 +10249,11 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -10212,7 +10273,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
@@ -10221,11 +10282,11 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -10252,7 +10313,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="5"/>
@@ -10280,7 +10341,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10309,7 +10370,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -10338,7 +10399,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -10367,7 +10428,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -10396,7 +10457,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10425,7 +10486,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10454,7 +10515,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -10483,7 +10544,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -10512,7 +10573,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -10541,7 +10602,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -10570,7 +10631,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10599,7 +10660,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -10628,7 +10689,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -10657,7 +10718,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -10702,11 +10763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AA6DB-B6EA-4B71-B942-6183BE6F96B6}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -10737,7 +10798,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -10766,7 +10827,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10795,13 +10856,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -10815,7 +10876,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -10826,11 +10887,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -10852,7 +10913,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -10863,7 +10924,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -10892,7 +10953,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -10921,7 +10982,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -10950,7 +11011,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -10979,7 +11040,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -11008,7 +11069,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -11045,7 +11106,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -11082,7 +11143,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -11119,7 +11180,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -11156,7 +11217,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -11185,7 +11246,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -11222,7 +11283,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -11251,7 +11312,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -11280,7 +11341,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -11309,7 +11370,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -11338,7 +11399,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -11367,7 +11428,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -11396,7 +11457,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -11425,7 +11486,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -11454,7 +11515,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -11483,7 +11544,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -11512,7 +11573,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -11541,7 +11602,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -11570,7 +11631,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -11599,7 +11660,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -11628,7 +11689,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -11657,7 +11718,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -11686,7 +11747,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11715,11 +11776,11 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -11746,11 +11807,11 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -11777,7 +11838,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11806,7 +11867,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11835,7 +11896,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11864,7 +11925,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11893,7 +11954,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -11922,7 +11983,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11951,7 +12012,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11980,7 +12041,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -12009,7 +12070,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -12038,7 +12099,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -12067,7 +12128,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -12096,7 +12157,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -12125,7 +12186,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -12154,7 +12215,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -12183,7 +12244,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -12228,13 +12289,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF4249-8C72-435B-B7F9-7416D740D4D7}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -12265,7 +12326,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -12294,7 +12355,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12323,13 +12384,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -12343,7 +12404,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -12354,11 +12415,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -12380,7 +12441,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -12391,7 +12452,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -12420,7 +12481,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -12449,7 +12510,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -12478,7 +12539,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -12507,7 +12568,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -12536,7 +12597,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -12567,7 +12628,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -12600,7 +12661,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -12631,7 +12692,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -12662,7 +12723,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -12691,7 +12752,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -12720,7 +12781,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -12751,7 +12812,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -12782,7 +12843,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -12813,7 +12874,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -12822,7 +12883,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -12844,7 +12905,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -12873,7 +12934,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -12902,7 +12963,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -12931,7 +12992,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -12960,7 +13021,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -12989,7 +13050,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -13018,7 +13079,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -13047,7 +13108,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -13076,7 +13137,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -13105,7 +13166,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -13134,7 +13195,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -13163,7 +13224,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -13192,11 +13253,11 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -13223,11 +13284,11 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -13254,11 +13315,11 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -13285,7 +13346,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -13314,7 +13375,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13344,7 +13405,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -13374,7 +13435,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -13404,7 +13465,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -13434,7 +13495,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -13464,7 +13525,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -13494,7 +13555,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -13524,7 +13585,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -13554,7 +13615,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -13584,7 +13645,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -13614,7 +13675,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -13644,7 +13705,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -13674,7 +13735,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -13704,7 +13765,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -13754,11 +13815,11 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13787,7 +13848,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -13816,7 +13877,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13845,13 +13906,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -13865,7 +13926,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -13876,11 +13937,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -13902,7 +13963,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -13913,7 +13974,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -13942,7 +14003,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -13971,7 +14032,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -13979,7 +14040,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -14004,7 +14065,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -14033,7 +14094,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -14062,7 +14123,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -14091,7 +14152,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -14100,7 +14161,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -14110,7 +14171,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="3"/>
@@ -14124,7 +14185,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -14133,7 +14194,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
@@ -14145,7 +14206,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
@@ -14161,7 +14222,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -14170,7 +14231,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -14180,7 +14241,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="3"/>
@@ -14194,7 +14255,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -14203,7 +14264,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -14213,7 +14274,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="3"/>
@@ -14227,7 +14288,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -14236,7 +14297,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -14246,7 +14307,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="3"/>
@@ -14260,7 +14321,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -14269,7 +14330,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -14279,7 +14340,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="3"/>
@@ -14293,7 +14354,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -14302,7 +14363,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -14312,7 +14373,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="3"/>
@@ -14326,7 +14387,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -14335,7 +14396,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -14345,7 +14406,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="3"/>
@@ -14359,7 +14420,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -14388,7 +14449,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -14417,7 +14478,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -14446,7 +14507,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -14455,7 +14516,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -14465,7 +14526,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="3"/>
@@ -14479,7 +14540,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -14488,7 +14549,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>26</v>
@@ -14500,7 +14561,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>26</v>
@@ -14516,7 +14577,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -14525,7 +14586,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -14535,7 +14596,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="3"/>
@@ -14549,7 +14610,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -14558,7 +14619,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -14568,7 +14629,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="3"/>
@@ -14582,7 +14643,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -14591,7 +14652,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -14601,7 +14662,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="3"/>
@@ -14615,7 +14676,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -14624,7 +14685,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -14634,7 +14695,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="3"/>
@@ -14648,7 +14709,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -14657,7 +14718,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -14667,7 +14728,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="3"/>
@@ -14681,7 +14742,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -14690,7 +14751,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -14700,7 +14761,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="3"/>
@@ -14714,7 +14775,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -14743,7 +14804,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -14772,11 +14833,11 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -14803,7 +14864,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -14832,7 +14893,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -14861,7 +14922,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -14890,7 +14951,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -14920,7 +14981,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -14950,7 +15011,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -14980,7 +15041,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -15010,7 +15071,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -15040,7 +15101,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -15070,7 +15131,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -15100,7 +15161,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -15130,7 +15191,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -15160,7 +15221,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -15190,7 +15251,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -15220,7 +15281,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -15250,7 +15311,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -15280,7 +15341,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -15326,15 +15387,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1334F413-0607-4199-9B6D-392F1E5B6C59}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -15363,7 +15424,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -15392,7 +15453,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15421,13 +15482,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -15441,7 +15502,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -15452,11 +15513,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -15478,7 +15539,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -15489,7 +15550,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -15518,7 +15579,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -15547,7 +15608,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -15576,7 +15637,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -15605,7 +15666,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -15634,7 +15695,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -15663,7 +15724,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -15692,7 +15753,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -15721,7 +15782,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -15750,7 +15811,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -15779,7 +15840,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -15789,17 +15850,17 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
@@ -15814,7 +15875,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -15843,7 +15904,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -15872,7 +15933,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -15901,7 +15962,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -15930,7 +15991,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -15959,7 +16020,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -15988,7 +16049,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -15998,17 +16059,17 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="1"/>
@@ -16023,7 +16084,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -16052,7 +16113,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -16081,7 +16142,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -16110,7 +16171,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -16139,7 +16200,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -16155,7 +16216,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
@@ -16170,7 +16231,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -16199,7 +16260,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -16228,7 +16289,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -16257,7 +16318,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -16286,7 +16347,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -16315,11 +16376,11 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -16346,11 +16407,11 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -16377,7 +16438,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -16406,7 +16467,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -16437,7 +16498,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -16468,7 +16529,7 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -16499,7 +16560,7 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -16530,7 +16591,7 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -16561,7 +16622,7 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -16592,7 +16653,7 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -16623,7 +16684,7 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -16654,7 +16715,7 @@
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -16685,7 +16746,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -16716,7 +16777,7 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -16747,7 +16808,7 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -16778,7 +16839,7 @@
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -16809,7 +16870,7 @@
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -16840,7 +16901,7 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -16871,7 +16932,7 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -16918,13 +16979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3C6334-DBF9-43F6-AB4B-40FA6472306B}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -16955,7 +17016,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -16984,7 +17045,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17013,13 +17074,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -17033,7 +17094,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -17044,11 +17105,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -17070,7 +17131,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -17081,7 +17142,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -17110,7 +17171,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -17139,7 +17200,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -17168,7 +17229,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -17197,7 +17258,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -17226,7 +17287,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -17255,7 +17316,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -17284,7 +17345,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -17313,7 +17374,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -17342,7 +17403,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -17371,7 +17432,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -17400,7 +17461,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -17429,7 +17490,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -17458,7 +17519,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -17487,7 +17548,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -17516,14 +17577,14 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
       <c r="D21" s="1"/>
       <c r="E21" s="37"/>
       <c r="F21" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
@@ -17534,7 +17595,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="O21" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="1"/>
@@ -17549,7 +17610,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -17578,7 +17639,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -17607,7 +17668,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -17636,7 +17697,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -17665,7 +17726,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -17694,7 +17755,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -17723,7 +17784,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -17739,7 +17800,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
@@ -17754,7 +17815,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -17783,7 +17844,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -17812,7 +17873,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -17841,7 +17902,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -17870,11 +17931,11 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -17901,7 +17962,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -17930,7 +17991,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -17959,7 +18020,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -17988,7 +18049,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -18017,7 +18078,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -18046,7 +18107,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -18075,7 +18136,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -18104,7 +18165,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -18133,7 +18194,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18162,7 +18223,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -18191,7 +18252,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -18220,7 +18281,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -18249,7 +18310,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -18278,7 +18339,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -18307,7 +18368,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -18336,7 +18397,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -18365,7 +18426,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -18410,23 +18471,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4174F8-AA91-4446-9599-0F8C738ED9F7}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -18452,7 +18513,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -18481,7 +18542,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -18510,13 +18571,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -18530,7 +18591,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -18541,11 +18602,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -18567,7 +18628,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -18578,7 +18639,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -18607,7 +18668,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -18636,7 +18697,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -18665,7 +18726,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -18694,7 +18755,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -18723,7 +18784,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -18752,7 +18813,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -18781,7 +18842,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -18810,7 +18871,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -18839,7 +18900,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -18868,7 +18929,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -18897,7 +18958,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -18926,7 +18987,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -18955,7 +19016,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -18984,7 +19045,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -19013,7 +19074,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -19042,7 +19103,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -19071,7 +19132,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -19100,7 +19161,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -19129,7 +19190,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -19158,7 +19219,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -19187,7 +19248,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -19216,7 +19277,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -19245,7 +19306,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -19274,7 +19335,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -19303,7 +19364,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -19332,7 +19393,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -19361,7 +19422,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -19390,7 +19451,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19419,7 +19480,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -19448,7 +19509,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -19477,7 +19538,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -19506,7 +19567,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -19535,7 +19596,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -19564,7 +19625,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -19593,7 +19654,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -19622,7 +19683,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19651,7 +19712,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -19680,7 +19741,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -19709,7 +19770,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -19738,7 +19799,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -19767,7 +19828,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -19796,7 +19857,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -19825,7 +19886,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -19854,7 +19915,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -19896,21 +19957,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -20127,24 +20173,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25710D5-7A11-4DF4-AED4-0DE1D9759218}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E545E9-25AD-45FA-99D4-971542CF6FE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8F76CC-5248-478A-961F-8E7230CACD01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20161,4 +20205,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E545E9-25AD-45FA-99D4-971542CF6FE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25710D5-7A11-4DF4-AED4-0DE1D9759218}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/オンライン合同企業展サイトイメージ_20200929.xlsx
+++ b/オンライン合同企業展サイトイメージ_20200929.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\Desktop\新しいフォルダー (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu007\Downloads\Souretree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FBD8C-9C03-44D0-8CA2-6C97D87C11B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA0F59A-E34A-4CF4-A799-4CAEE47DBB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="引継ぎ" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="115">
   <si>
     <t>合同企業展</t>
     <rPh sb="0" eb="2">
@@ -1144,16 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会場選択(1)</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業情報(1)</t>
     <rPh sb="0" eb="4">
       <t>キギョウジョウホウ</t>
@@ -1190,13 +1180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>説明会(2)</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HTML担当:8画面</t>
     <rPh sb="4" eb="6">
       <t>タントウ</t>
@@ -1213,6 +1196,192 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業種の会場選択(1)</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業種の中の会場選択(2)</t>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・業種の中の会場選択</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場×4（2）</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．1会場９ブースある×４</t>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．その会場をキャラを動かして選択する</t>
+    <rPh sb="4" eb="6">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブース内×９（2）</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会URL×９（2）</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイルーム（2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談室×２</t>
+    <rPh sb="0" eb="3">
+      <t>ソウダンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・会場</t>
+    <rPh sb="1" eb="3">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業のブース、マイルーム、相談室が設置してある</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ソウダンシツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブース内</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の動画が流れている</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マイルーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター変更ができる</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・相談室</t>
+    <rPh sb="1" eb="4">
+      <t>ソウダンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者がいて相談できる</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・説明会URL</t>
+    <rPh sb="1" eb="4">
+      <t>セツメイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会（サイト）URLに飛ぶ</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1343,7 +1512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +1834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,6 +1975,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,14 +2175,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1995,9 +2197,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="2419350"/>
-          <a:ext cx="0" cy="485775"/>
+        <a:xfrm flipH="1">
+          <a:off x="2314575" y="4105275"/>
+          <a:ext cx="1" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2298,6 +2500,406 @@
         <a:xfrm>
           <a:off x="10182225" y="1914525"/>
           <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB2BA71-4518-495A-BC41-AF89056E331F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="3143250"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FE89AE-FCC1-488B-9AE9-33F5FE498DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="3886200"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DF7E88-A2EE-478D-BC6C-B5254237EB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="4124325"/>
+          <a:ext cx="1466850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1881D34-89D2-4F30-B572-D746D33CA5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3781425" y="4133850"/>
+          <a:ext cx="2209800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6F28A-A087-40A7-B692-AF48B8510029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5238750" y="4143375"/>
+          <a:ext cx="1" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276227</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5042CC-7D9B-41BA-9780-4C100474CB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="4610100"/>
+          <a:ext cx="9527" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F54B0CE-5885-425D-AA83-2AD52C0272CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5991225" y="4133850"/>
+          <a:ext cx="2209800" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4F6CA3-902B-4097-81F3-57312E2B6C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8181975" y="4124325"/>
+          <a:ext cx="1" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3322,8 +3924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13472583" y="863601"/>
-          <a:ext cx="891117" cy="867833"/>
+          <a:off x="13853583" y="899584"/>
+          <a:ext cx="910167" cy="910167"/>
           <a:chOff x="13853583" y="899584"/>
           <a:chExt cx="910167" cy="910167"/>
         </a:xfrm>
@@ -3520,8 +4122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13843002" y="1094842"/>
-          <a:ext cx="190500" cy="288401"/>
+          <a:off x="14224002" y="1137176"/>
+          <a:ext cx="190500" cy="294750"/>
           <a:chOff x="16753417" y="1534583"/>
           <a:chExt cx="268817" cy="415926"/>
         </a:xfrm>
@@ -4338,8 +4940,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3141134" y="2144184"/>
-          <a:ext cx="1358900" cy="1322917"/>
+          <a:off x="3217334" y="2243667"/>
+          <a:ext cx="1397000" cy="1397000"/>
           <a:chOff x="3704166" y="2243667"/>
           <a:chExt cx="910167" cy="910167"/>
         </a:xfrm>
@@ -6369,8 +6971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3845984" y="3838827"/>
-          <a:ext cx="558799" cy="771273"/>
+          <a:off x="3941234" y="4042027"/>
+          <a:ext cx="577849" cy="815723"/>
           <a:chOff x="3824817" y="3851527"/>
           <a:chExt cx="577849" cy="815723"/>
         </a:xfrm>
@@ -6494,8 +7096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8756650" y="3843060"/>
-          <a:ext cx="577849" cy="771273"/>
+          <a:off x="9004300" y="4046260"/>
+          <a:ext cx="577849" cy="815723"/>
           <a:chOff x="3824817" y="3851527"/>
           <a:chExt cx="577849" cy="815723"/>
         </a:xfrm>
@@ -7485,9 +8087,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7506,7 +8108,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
@@ -7527,7 +8129,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
         <v>45</v>
@@ -7548,7 +8150,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7567,7 +8169,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>52</v>
@@ -7588,7 +8190,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>53</v>
@@ -7609,7 +8211,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>80</v>
@@ -7630,7 +8232,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7649,7 +8251,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -7670,7 +8272,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="27" t="s">
         <v>47</v>
@@ -7691,7 +8293,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="27" t="s">
         <v>48</v>
@@ -7712,7 +8314,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>49</v>
@@ -7733,7 +8335,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7752,7 +8354,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7771,7 +8373,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="40" t="s">
         <v>50</v>
@@ -7792,7 +8394,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>81</v>
@@ -7813,7 +8415,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7832,7 +8434,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7851,7 +8453,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7870,7 +8472,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7889,7 +8491,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7908,7 +8510,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7927,7 +8529,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7946,7 +8548,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7965,7 +8567,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7984,7 +8586,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8003,7 +8605,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8022,7 +8624,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8041,7 +8643,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8060,7 +8662,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8079,7 +8681,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8098,7 +8700,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8117,7 +8719,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -8136,7 +8738,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -8155,7 +8757,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -8174,7 +8776,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -8193,7 +8795,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8212,7 +8814,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -8231,7 +8833,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -8250,7 +8852,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -8269,7 +8871,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -8288,7 +8890,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8307,7 +8909,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -8326,7 +8928,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -8345,7 +8947,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -8364,7 +8966,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -8383,7 +8985,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8402,7 +9004,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -8421,7 +9023,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8440,7 +9042,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -8459,7 +9061,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -8478,7 +9080,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8497,7 +9099,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8516,7 +9118,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -8535,7 +9137,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8554,7 +9156,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8573,7 +9175,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8592,7 +9194,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8611,7 +9213,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8630,7 +9232,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8658,19 +9260,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811D459-42FF-4B84-B347-AB1111206460}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8690,7 +9294,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -8712,7 +9316,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -8734,10 +9338,10 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="55" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="5"/>
@@ -8756,7 +9360,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8776,7 +9380,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8796,7 +9400,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8805,12 +9409,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="5"/>
       <c r="K7" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="5"/>
@@ -8820,7 +9424,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8840,7 +9444,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8860,7 +9464,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="23" t="s">
@@ -8868,31 +9472,31 @@
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="22" t="s">
-        <v>86</v>
+      <c r="F10" s="49" t="s">
+        <v>94</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="5"/>
       <c r="I10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8912,7 +9516,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8932,18 +9536,14 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="23" t="s">
-        <v>85</v>
+      <c r="E13" s="5"/>
+      <c r="F13" s="51" t="s">
+        <v>95</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -8956,7 +9556,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8972,13 +9572,13 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8994,20 +9594,22 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -9019,8 +9621,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T16" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9039,8 +9644,11 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9059,28 +9667,40 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="F19" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="I19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="48"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="48"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9100,7 +9720,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9119,12 +9739,17 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="54"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -9139,8 +9764,11 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9160,7 +9788,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9179,8 +9807,11 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="T24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9199,8 +9830,49 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
+      <c r="T25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.4">
+      <c r="T33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.4">
+      <c r="T34" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9214,9 +9886,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -9247,7 +9919,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -9276,7 +9948,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9305,7 +9977,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -9336,7 +10008,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -9373,7 +10045,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -9404,7 +10076,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -9441,7 +10113,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -9476,7 +10148,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -9505,7 +10177,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -9536,7 +10208,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -9573,7 +10245,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -9604,7 +10276,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -9635,7 +10307,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -9666,7 +10338,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -9695,7 +10367,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -9726,7 +10398,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -9757,7 +10429,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -9788,7 +10460,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -9819,7 +10491,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -9848,7 +10520,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -9879,7 +10551,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -9910,7 +10582,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -9947,7 +10619,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -9978,7 +10650,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -10009,7 +10681,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -10040,7 +10712,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -10071,7 +10743,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -10102,7 +10774,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -10133,7 +10805,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -10162,7 +10834,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -10191,7 +10863,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -10220,7 +10892,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10249,7 +10921,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -10282,7 +10954,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -10313,7 +10985,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="5"/>
@@ -10341,7 +11013,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10370,7 +11042,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -10399,7 +11071,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -10428,7 +11100,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -10457,7 +11129,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10486,7 +11158,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10515,7 +11187,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -10544,7 +11216,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -10573,7 +11245,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -10602,7 +11274,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -10631,7 +11303,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10660,7 +11332,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -10689,7 +11361,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -10718,7 +11390,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -10763,11 +11435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1AA6DB-B6EA-4B71-B942-6183BE6F96B6}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -10798,7 +11472,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -10827,7 +11501,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10856,7 +11530,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -10887,7 +11561,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -10924,7 +11598,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -10953,7 +11627,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -10982,7 +11656,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -11011,7 +11685,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -11040,7 +11714,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -11069,7 +11743,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -11106,7 +11780,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -11143,7 +11817,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -11180,7 +11854,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -11217,7 +11891,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -11246,7 +11920,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -11283,7 +11957,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -11312,7 +11986,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -11341,7 +12015,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -11370,7 +12044,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -11399,7 +12073,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -11428,7 +12102,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -11457,7 +12131,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -11486,7 +12160,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -11515,7 +12189,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -11544,7 +12218,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -11573,7 +12247,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -11602,7 +12276,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -11631,7 +12305,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -11660,7 +12334,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -11689,7 +12363,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -11718,7 +12392,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -11747,7 +12421,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11776,7 +12450,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -11807,7 +12481,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -11838,7 +12512,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11867,7 +12541,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11896,7 +12570,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11925,7 +12599,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11954,7 +12628,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -11983,7 +12657,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -12012,7 +12686,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12041,7 +12715,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -12070,7 +12744,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -12099,7 +12773,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -12128,7 +12802,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -12157,7 +12831,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -12186,7 +12860,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -12215,7 +12889,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -12244,7 +12918,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -12289,13 +12963,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF4249-8C72-435B-B7F9-7416D740D4D7}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -12326,7 +13000,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -12355,7 +13029,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12384,7 +13058,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -12415,7 +13089,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -12452,7 +13126,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -12481,7 +13155,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -12510,7 +13184,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -12539,7 +13213,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -12568,7 +13242,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -12597,7 +13271,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -12628,7 +13302,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -12661,7 +13335,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -12692,7 +13366,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -12723,7 +13397,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -12752,7 +13426,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -12781,7 +13455,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -12812,7 +13486,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -12843,7 +13517,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -12874,7 +13548,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -12905,7 +13579,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -12934,7 +13608,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -12963,7 +13637,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -12992,7 +13666,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -13021,7 +13695,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -13050,7 +13724,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -13079,7 +13753,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -13108,7 +13782,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -13137,7 +13811,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -13166,7 +13840,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -13195,7 +13869,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -13224,7 +13898,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -13253,7 +13927,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -13284,7 +13958,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -13315,7 +13989,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -13346,7 +14020,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -13375,7 +14049,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13405,7 +14079,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -13435,7 +14109,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -13465,7 +14139,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -13495,7 +14169,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -13525,7 +14199,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -13555,7 +14229,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -13585,7 +14259,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -13615,7 +14289,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -13645,7 +14319,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -13675,7 +14349,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -13705,7 +14379,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -13735,7 +14409,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -13765,7 +14439,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -13815,9 +14489,9 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
@@ -13848,7 +14522,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -13877,7 +14551,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13906,7 +14580,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -13937,7 +14611,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -13974,7 +14648,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -14003,7 +14677,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -14032,7 +14706,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -14065,7 +14739,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -14094,7 +14768,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -14123,7 +14797,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -14152,7 +14826,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -14185,7 +14859,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -14222,7 +14896,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -14255,7 +14929,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -14288,7 +14962,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -14321,7 +14995,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -14354,7 +15028,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -14387,7 +15061,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -14420,7 +15094,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -14449,7 +15123,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -14478,7 +15152,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -14507,7 +15181,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -14540,7 +15214,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -14577,7 +15251,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -14610,7 +15284,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -14643,7 +15317,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -14676,7 +15350,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -14709,7 +15383,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -14742,7 +15416,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -14775,7 +15449,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -14804,7 +15478,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -14833,7 +15507,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -14864,7 +15538,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -14893,7 +15567,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -14922,7 +15596,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -14951,7 +15625,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -14981,7 +15655,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -15011,7 +15685,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -15041,7 +15715,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -15071,7 +15745,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -15101,7 +15775,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -15131,7 +15805,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -15161,7 +15835,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -15191,7 +15865,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -15221,7 +15895,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -15251,7 +15925,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -15281,7 +15955,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -15311,7 +15985,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -15341,7 +16015,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -15391,9 +16065,9 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -15424,7 +16098,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -15453,7 +16127,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15482,7 +16156,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -15513,7 +16187,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -15550,7 +16224,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -15579,7 +16253,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -15608,7 +16282,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -15637,7 +16311,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -15666,7 +16340,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -15695,7 +16369,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -15724,7 +16398,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -15753,7 +16427,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -15782,7 +16456,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -15811,7 +16485,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -15840,7 +16514,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -15875,7 +16549,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -15904,7 +16578,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -15933,7 +16607,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -15962,7 +16636,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -15991,7 +16665,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -16020,7 +16694,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -16049,7 +16723,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -16084,7 +16758,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -16113,7 +16787,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -16142,7 +16816,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -16171,7 +16845,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -16200,7 +16874,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -16231,7 +16905,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -16260,7 +16934,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -16289,7 +16963,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -16318,7 +16992,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -16347,7 +17021,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -16376,7 +17050,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -16407,7 +17081,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -16438,7 +17112,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -16467,7 +17141,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -16498,7 +17172,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -16529,7 +17203,7 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -16560,7 +17234,7 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -16591,7 +17265,7 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -16622,7 +17296,7 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -16653,7 +17327,7 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -16684,7 +17358,7 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -16715,7 +17389,7 @@
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -16746,7 +17420,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -16777,7 +17451,7 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -16808,7 +17482,7 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -16839,7 +17513,7 @@
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -16870,7 +17544,7 @@
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -16901,7 +17575,7 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -16932,7 +17606,7 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -16983,9 +17657,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -17016,7 +17690,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -17045,7 +17719,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17074,7 +17748,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -17105,7 +17779,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -17142,7 +17816,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -17171,7 +17845,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -17200,7 +17874,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -17229,7 +17903,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -17258,7 +17932,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -17287,7 +17961,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -17316,7 +17990,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -17345,7 +18019,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -17374,7 +18048,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -17403,7 +18077,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -17432,7 +18106,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -17461,7 +18135,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -17490,7 +18164,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -17519,7 +18193,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -17548,7 +18222,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -17577,7 +18251,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -17610,7 +18284,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -17639,7 +18313,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -17668,7 +18342,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -17697,7 +18371,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -17726,7 +18400,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -17755,7 +18429,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -17784,7 +18458,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -17815,7 +18489,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -17844,7 +18518,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -17873,7 +18547,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -17902,7 +18576,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -17931,7 +18605,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -17962,7 +18636,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -17991,7 +18665,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -18020,7 +18694,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -18049,7 +18723,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -18078,7 +18752,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -18107,7 +18781,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -18136,7 +18810,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -18165,7 +18839,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -18194,7 +18868,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18223,7 +18897,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -18252,7 +18926,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -18281,7 +18955,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -18310,7 +18984,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -18339,7 +19013,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -18368,7 +19042,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -18397,7 +19071,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -18426,7 +19100,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -18475,12 +19149,12 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -18513,7 +19187,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -18542,7 +19216,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -18571,7 +19245,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="43" t="s">
@@ -18602,7 +19276,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="45"/>
@@ -18639,7 +19313,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -18668,7 +19342,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -18697,7 +19371,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -18726,7 +19400,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -18755,7 +19429,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -18784,7 +19458,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -18813,7 +19487,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -18842,7 +19516,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -18871,7 +19545,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -18900,7 +19574,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -18929,7 +19603,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -18958,7 +19632,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -18987,7 +19661,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
@@ -19016,7 +19690,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
@@ -19045,7 +19719,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
@@ -19074,7 +19748,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
@@ -19103,7 +19777,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
@@ -19132,7 +19806,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
@@ -19161,7 +19835,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
@@ -19190,7 +19864,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
@@ -19219,7 +19893,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
@@ -19248,7 +19922,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
@@ -19277,7 +19951,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -19306,7 +19980,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10"/>
@@ -19335,7 +20009,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10"/>
@@ -19364,7 +20038,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="13"/>
@@ -19393,7 +20067,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -19422,7 +20096,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -19451,7 +20125,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19480,7 +20154,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -19509,7 +20183,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -19538,7 +20212,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -19567,7 +20241,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -19596,7 +20270,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -19625,7 +20299,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -19654,7 +20328,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -19683,7 +20357,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19712,7 +20386,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -19741,7 +20415,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -19770,7 +20444,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -19799,7 +20473,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -19828,7 +20502,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -19857,7 +20531,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -19886,7 +20560,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -19915,7 +20589,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -19957,6 +20631,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -20173,22 +20862,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25710D5-7A11-4DF4-AED4-0DE1D9759218}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E545E9-25AD-45FA-99D4-971542CF6FE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8F76CC-5248-478A-961F-8E7230CACD01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20205,21 +20896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E545E9-25AD-45FA-99D4-971542CF6FE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C25710D5-7A11-4DF4-AED4-0DE1D9759218}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/オンライン合同企業展サイトイメージ_20200929.xlsx
+++ b/オンライン合同企業展サイトイメージ_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu007\Downloads\Souretree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu001\Documents\git04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA0F59A-E34A-4CF4-A799-4CAEE47DBB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320EA447-952C-4BE7-B91A-DFA22EF4B996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{A555CFE1-48E1-42D7-9954-44467B68CDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="引継ぎ" sheetId="11" r:id="rId1"/>
@@ -312,13 +312,6 @@
     <t>マイページを編集する</t>
     <rPh sb="6" eb="8">
       <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アバターを変更する</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1382,6 +1375,16 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/10/5 14:26 ※アバター変更を削除</t>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1958,23 +1961,14 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1994,14 +1988,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8111,7 +8114,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -8132,7 +8135,7 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -8172,7 +8175,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -8193,7 +8196,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8214,7 +8217,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8254,7 +8257,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8275,7 +8278,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8296,7 +8299,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8317,7 +8320,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -8376,7 +8379,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -8397,7 +8400,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -9262,7 +9265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811D459-42FF-4B84-B347-AB1111206460}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -9298,7 +9301,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -9320,7 +9323,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -9341,8 +9344,8 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="55" t="s">
-        <v>83</v>
+      <c r="C4" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -9409,12 +9412,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="5"/>
       <c r="K7" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="5"/>
@@ -9468,29 +9471,29 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="49" t="s">
-        <v>94</v>
+      <c r="F10" s="46" t="s">
+        <v>93</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="5"/>
       <c r="I10" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
@@ -9540,10 +9543,10 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="51" t="s">
-        <v>95</v>
+      <c r="F13" s="48" t="s">
+        <v>94</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -9572,7 +9575,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -9594,7 +9597,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -9606,10 +9609,10 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="47" t="s">
-        <v>98</v>
+      <c r="F16" s="44" t="s">
+        <v>97</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -9621,8 +9624,8 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="T16" s="55" t="s">
-        <v>96</v>
+      <c r="T16" s="43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
@@ -9645,7 +9648,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="T17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -9668,36 +9671,36 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="T18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="F19" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="I19" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="F19" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="I19" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
@@ -9740,16 +9743,16 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="53" t="s">
-        <v>85</v>
+      <c r="C22" s="41" t="s">
+        <v>84</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -9765,7 +9768,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="T22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
@@ -9808,7 +9811,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="T24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
@@ -9831,37 +9834,37 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="T25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="T27" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="T28" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="T30" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="T31" t="s">
+    <row r="33" spans="20:20" x14ac:dyDescent="0.4">
+      <c r="T33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.4">
-      <c r="T33" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="34" spans="20:20" x14ac:dyDescent="0.4">
       <c r="T34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -9980,10 +9983,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -9997,7 +10000,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="7"/>
@@ -10011,8 +10014,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -10034,7 +10037,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="10"/>
@@ -10925,7 +10928,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -10945,7 +10948,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
@@ -10958,7 +10961,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -11533,10 +11536,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -11550,7 +11553,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -11564,8 +11567,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -11587,7 +11590,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -12454,7 +12457,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -12485,7 +12488,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -12961,15 +12964,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF4249-8C72-435B-B7F9-7416D740D4D7}">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -13000,7 +13003,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -13029,7 +13032,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13058,13 +13061,13 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -13078,7 +13081,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -13089,11 +13092,11 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -13115,7 +13118,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -13126,7 +13129,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="10"/>
@@ -13155,7 +13158,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="10"/>
@@ -13184,7 +13187,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -13213,7 +13216,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="10"/>
@@ -13242,7 +13245,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="10"/>
@@ -13271,7 +13274,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10"/>
@@ -13302,7 +13305,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10"/>
@@ -13335,7 +13338,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10"/>
@@ -13366,7 +13369,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10"/>
@@ -13397,7 +13400,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
@@ -13426,7 +13429,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10"/>
@@ -13454,6 +13457,9 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
+      <c r="AD16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
@@ -13495,7 +13501,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="21" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -13526,7 +13532,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="21" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -13556,9 +13562,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -13931,7 +13935,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -13962,7 +13966,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -13993,7 +13997,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -14493,7 +14497,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -14583,10 +14587,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -14600,7 +14604,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -14614,8 +14618,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -14637,7 +14641,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -14714,7 +14718,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -14835,7 +14839,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -14845,7 +14849,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="3"/>
@@ -14868,7 +14872,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
@@ -14880,7 +14884,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
@@ -14905,7 +14909,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -14915,7 +14919,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="3"/>
@@ -14938,7 +14942,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -14948,7 +14952,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="3"/>
@@ -14971,7 +14975,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -14981,7 +14985,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="3"/>
@@ -15004,7 +15008,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -15014,7 +15018,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="3"/>
@@ -15037,7 +15041,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -15047,7 +15051,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="3"/>
@@ -15070,7 +15074,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -15080,7 +15084,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="3"/>
@@ -15190,7 +15194,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -15200,7 +15204,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="3"/>
@@ -15223,7 +15227,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>26</v>
@@ -15235,7 +15239,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>26</v>
@@ -15260,7 +15264,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -15270,7 +15274,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="3"/>
@@ -15293,7 +15297,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -15303,7 +15307,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="3"/>
@@ -15326,7 +15330,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -15336,7 +15340,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="3"/>
@@ -15359,7 +15363,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -15369,7 +15373,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="3"/>
@@ -15392,7 +15396,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -15402,7 +15406,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="3"/>
@@ -15425,7 +15429,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -15435,7 +15439,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="3"/>
@@ -15511,7 +15515,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -16069,7 +16073,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -16159,10 +16163,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -16176,7 +16180,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -16190,8 +16194,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -16213,7 +16217,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -16524,17 +16528,17 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
@@ -16733,17 +16737,17 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="1"/>
@@ -16890,7 +16894,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
@@ -17054,7 +17058,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -17085,7 +17089,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -17751,10 +17755,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -17768,7 +17772,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -17782,8 +17786,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -17805,7 +17809,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
@@ -18258,7 +18262,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="37"/>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
@@ -18269,7 +18273,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="O21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="1"/>
@@ -18474,7 +18478,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
@@ -18609,7 +18613,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -19156,12 +19160,12 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -19248,10 +19252,10 @@
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -19265,7 +19269,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="1"/>
@@ -19279,8 +19283,8 @@
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="15"/>
       <c r="F5" s="9"/>
       <c r="G5" s="17" t="s">
@@ -19302,7 +19306,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="42"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="1"/>
